--- a/data/trans_orig/Q5410A_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5410A_2023-Provincia-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>2374</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5013</v>
+        <v>4855</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.349019101175442</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09178135315609871</v>
+        <v>0.09223010807765754</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7371247532747568</v>
+        <v>0.7138049987832846</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>2374</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4934</v>
+        <v>5196</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3071713706534328</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07792450448252494</v>
+        <v>0.08043721108561751</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.638503542413537</v>
+        <v>0.6724367879696672</v>
       </c>
     </row>
     <row r="5">
@@ -817,19 +817,19 @@
         <v>2711</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>651</v>
+        <v>727</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5036</v>
+        <v>4981</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.3985858381947549</v>
+        <v>0.398585838194755</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09574162152045493</v>
+        <v>0.1068278962553484</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7404360657068997</v>
+        <v>0.7324154041791908</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -838,19 +838,19 @@
         <v>3637</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1360</v>
+        <v>1365</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6005</v>
+        <v>5936</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.4706959825696176</v>
+        <v>0.4706959825696177</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1760000287910834</v>
+        <v>0.1766656853436898</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7770854573335707</v>
+        <v>0.7682298452502857</v>
       </c>
     </row>
     <row r="6">
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>2849</v>
+        <v>3113</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09448393680656557</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4189688880514136</v>
+        <v>0.457689083026521</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2958</v>
+        <v>2717</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08315522066231026</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3827765548252798</v>
+        <v>0.3515649603766934</v>
       </c>
     </row>
     <row r="8">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3129</v>
+        <v>3145</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1579111238232374</v>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4600193166511843</v>
+        <v>0.4624439289718311</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3893</v>
+        <v>2942</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1389774261146392</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5037913063045938</v>
+        <v>0.3807229045889381</v>
       </c>
     </row>
     <row r="9">
@@ -1157,19 +1157,19 @@
         <v>1531</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>3167</v>
+        <v>3188</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4051224689531966</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1064673511793679</v>
+        <v>0.1054685398055524</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8377859220450433</v>
+        <v>0.8433248628516041</v>
       </c>
     </row>
     <row r="11">
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2689</v>
+        <v>2629</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2926651771193925</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7112883844593254</v>
+        <v>0.6955045498365622</v>
       </c>
     </row>
     <row r="12">
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2771</v>
+        <v>2738</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3022123539274109</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7330052159057547</v>
+        <v>0.7242435051491971</v>
       </c>
     </row>
     <row r="15">
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1832</v>
+        <v>1774</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1726496362044034</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6996267927535373</v>
+        <v>0.6776724964602434</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1804</v>
+        <v>2020</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1305438320097538</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5209679932709533</v>
+        <v>0.5832265794697291</v>
       </c>
     </row>
     <row r="17">
@@ -1573,19 +1573,19 @@
         <v>1249</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2166</v>
+        <v>2175</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4769668810673355</v>
+        <v>0.4769668810673356</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.142090907605055</v>
+        <v>0.1439338986292414</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8274476772329477</v>
+        <v>0.830688228433782</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -1594,19 +1594,19 @@
         <v>2093</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>904</v>
+        <v>488</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3144</v>
+        <v>3082</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6045242311854817</v>
+        <v>0.6045242311854816</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2610001168077091</v>
+        <v>0.1408633651438743</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.907889174186398</v>
+        <v>0.8900951869201517</v>
       </c>
     </row>
     <row r="18">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1758</v>
+        <v>1722</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1645004576657862</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6713319654933849</v>
+        <v>0.6577764391028191</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1978</v>
+        <v>1972</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.12438207564843</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5712668432596114</v>
+        <v>0.5695859718717402</v>
       </c>
     </row>
     <row r="20">
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1844</v>
+        <v>1820</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1858830250624749</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7042237290033126</v>
+        <v>0.6950744945086663</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2074</v>
+        <v>2065</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1405498611563346</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5988778500092951</v>
+        <v>0.5963015467419468</v>
       </c>
     </row>
     <row r="21">
@@ -1939,19 +1939,19 @@
         <v>5012</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3144</v>
+        <v>3315</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6269</v>
+        <v>6286</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.7098528472483979</v>
+        <v>0.7098528472483978</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4453774166869984</v>
+        <v>0.4695180854459278</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8879358743661403</v>
+        <v>0.8903684178954888</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>14</v>
@@ -1960,19 +1960,19 @@
         <v>5530</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3753</v>
+        <v>3395</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>7294</v>
+        <v>7267</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6116320659475045</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4150540091772368</v>
+        <v>0.3755285927759525</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8067142346824675</v>
+        <v>0.803797741567952</v>
       </c>
     </row>
     <row r="24">
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1492</v>
+        <v>1588</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2487280659176977</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7535951612989708</v>
+        <v>0.8021037047777689</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2479</v>
+        <v>2388</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1153706763117876</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3511989061747056</v>
+        <v>0.3381870760203227</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -2078,19 +2078,19 @@
         <v>1307</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3221</v>
+        <v>3158</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1445825649082354</v>
+        <v>0.1445825649082353</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0432842105841637</v>
+        <v>0.04201466738374332</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.356287323794489</v>
+        <v>0.3493296489489019</v>
       </c>
     </row>
     <row r="26">
@@ -2128,19 +2128,19 @@
         <v>1234</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2961</v>
+        <v>2936</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.1747764764398146</v>
+        <v>0.1747764764398145</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05227020498205901</v>
+        <v>0.05423876708206438</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4194445493270276</v>
+        <v>0.4159086005957959</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5</v>
@@ -2149,19 +2149,19 @@
         <v>2204</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>890</v>
+        <v>852</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4364</v>
+        <v>4436</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.24378536914426</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09847115030143314</v>
+        <v>0.0942620751424946</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4827450485622947</v>
+        <v>0.4906714202140774</v>
       </c>
     </row>
     <row r="27">
@@ -2253,19 +2253,19 @@
         <v>1659</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2667</v>
+        <v>2686</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5359050957834122</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1498876506527117</v>
+        <v>0.1480371133398377</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8615779348177716</v>
+        <v>0.8676331912959132</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>7</v>
@@ -2274,19 +2274,19 @@
         <v>2633</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1075</v>
+        <v>1251</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3669</v>
+        <v>3665</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6506482673080456</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2656128636899528</v>
+        <v>0.3091901519715297</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9067616076913809</v>
+        <v>0.9058436179941565</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>11</v>
@@ -2295,19 +2295,19 @@
         <v>4292</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2564</v>
+        <v>2474</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5844</v>
+        <v>5969</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.6009073249728352</v>
+        <v>0.6009073249728353</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.358986264024153</v>
+        <v>0.346290320094483</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8181617887501549</v>
+        <v>0.8355747468206092</v>
       </c>
     </row>
     <row r="29">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1574</v>
+        <v>2150</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1635300528030081</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5083530456390928</v>
+        <v>0.6945018544958267</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2348,16 +2348,16 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1926</v>
+        <v>1560</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.08850177318320994</v>
+        <v>0.08850177318320995</v>
       </c>
       <c r="O29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4760698542888567</v>
+        <v>0.3855728929238209</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2612</v>
+        <v>2873</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1210263868965168</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3656276406014278</v>
+        <v>0.4022466524335997</v>
       </c>
     </row>
     <row r="30">
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>2093</v>
+        <v>2106</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1002122730265251</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5172236613242358</v>
+        <v>0.5205709802812646</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1</v>
@@ -2432,16 +2432,16 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1766</v>
+        <v>1811</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.0567704470105637</v>
+        <v>0.05677044701056371</v>
       </c>
       <c r="V30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.247211953107022</v>
+        <v>0.253566037520494</v>
       </c>
     </row>
     <row r="31">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>2198</v>
+        <v>2209</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1606376864822195</v>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5433332463022437</v>
+        <v>0.5458877771476782</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -2495,16 +2495,16 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2829</v>
+        <v>3138</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.09100156091584276</v>
+        <v>0.09100156091584277</v>
       </c>
       <c r="V31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3960129517381384</v>
+        <v>0.4393088824158136</v>
       </c>
     </row>
     <row r="32">
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2321</v>
+        <v>2242</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3005648514135797</v>
@@ -2533,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7496094605051329</v>
+        <v>0.7242435451649027</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2890</v>
+        <v>2794</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1302942802042415</v>
@@ -2567,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4046412002768879</v>
+        <v>0.3911221678455503</v>
       </c>
     </row>
     <row r="33">
@@ -2672,19 +2672,19 @@
         <v>2011</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4356</v>
+        <v>4346</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2816307886398823</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08186811759218247</v>
+        <v>0.08018739181914228</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.609947108376316</v>
+        <v>0.6085389663561999</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -2693,19 +2693,19 @@
         <v>2011</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>599</v>
+        <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>4631</v>
+        <v>4527</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.203703382450422</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06065164806432905</v>
+        <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4690071543349442</v>
+        <v>0.4585378367462795</v>
       </c>
     </row>
     <row r="35">
@@ -2743,19 +2743,19 @@
         <v>2626</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>632</v>
+        <v>689</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>4988</v>
+        <v>4991</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3677354306600545</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.08847675653038659</v>
+        <v>0.09649755979072573</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.6985071959054273</v>
+        <v>0.6989256526124844</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>6</v>
@@ -2764,19 +2764,19 @@
         <v>4467</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2078</v>
+        <v>1997</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>7295</v>
+        <v>7509</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.4524118936098256</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2104588244330391</v>
+        <v>0.2023008919046551</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.7389224274988273</v>
+        <v>0.7605389285924928</v>
       </c>
     </row>
     <row r="36">
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>3967</v>
+        <v>4627</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1698756086125466</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5555626958217084</v>
+        <v>0.6479193310425875</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5173</v>
+        <v>5148</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1228709269938799</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.5239196290386561</v>
+        <v>0.5214651090904693</v>
       </c>
     </row>
     <row r="37">
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3635</v>
+        <v>3553</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1807581720875165</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5089881784716933</v>
+        <v>0.4975290239312459</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>3</v>
@@ -2945,19 +2945,19 @@
         <v>2182</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>5178</v>
+        <v>5345</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2210137969458726</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.06177450307492469</v>
+        <v>0.06158339156258577</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5244954918370206</v>
+        <v>0.5413883378830445</v>
       </c>
     </row>
     <row r="39">
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>5326</v>
+        <v>5259</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.09254176161020972</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3016389799671395</v>
+        <v>0.2978614985176894</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>4</v>
@@ -3138,19 +3138,19 @@
         <v>2965</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>6972</v>
+        <v>6914</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1366161608029929</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03289041396425174</v>
+        <v>0.03316418441927715</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3212562165264802</v>
+        <v>0.3185945642861256</v>
       </c>
     </row>
     <row r="42">
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2590</v>
+        <v>3394</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.03351504614338009</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1466682544470114</v>
+        <v>0.1922346452066888</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>3640</v>
+        <v>3533</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0272676704470514</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1677036803397457</v>
+        <v>0.1627812532370571</v>
       </c>
     </row>
     <row r="43">
@@ -3239,10 +3239,10 @@
         <v>0.5070530560111984</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1653485707195588</v>
+        <v>0.1653236844780914</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.8385045682152158</v>
+        <v>0.8386156686187437</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>13</v>
@@ -3251,19 +3251,19 @@
         <v>9887</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>6253</v>
+        <v>6000</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>13430</v>
+        <v>13332</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.5599242591492013</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.3541461089358184</v>
+        <v>0.3397989843761001</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.7605826689154538</v>
+        <v>0.7550308388048788</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>16</v>
@@ -3272,19 +3272,19 @@
         <v>11938</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>8172</v>
+        <v>8087</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>16016</v>
+        <v>15723</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.5500687969753784</v>
+        <v>0.5500687969753781</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3765389582472013</v>
+        <v>0.372630152528684</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.7379396122833981</v>
+        <v>0.7244492268206133</v>
       </c>
     </row>
     <row r="44">
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>2682</v>
+        <v>2702</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1639610185425762</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.6631606029569607</v>
+        <v>0.6679664975048026</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>9</v>
@@ -3322,19 +3322,19 @@
         <v>5545</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>2856</v>
+        <v>2518</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>9104</v>
+        <v>9351</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.314018933097209</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1617314683937202</v>
+        <v>0.1426229195129993</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5156175844375003</v>
+        <v>0.5295706299740969</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>10</v>
@@ -3343,19 +3343,19 @@
         <v>6208</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>3049</v>
+        <v>3182</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>9940</v>
+        <v>9823</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2860473717745776</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1405014311825432</v>
+        <v>0.1466196645457108</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4580127669054275</v>
+        <v>0.4526318032065581</v>
       </c>
     </row>
     <row r="45">
@@ -3447,19 +3447,19 @@
         <v>2269</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>853</v>
+        <v>790</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>5063</v>
+        <v>5021</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1475728464921347</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.05549919577643412</v>
+        <v>0.05135073173355617</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3292897631433143</v>
+        <v>0.3265185631179519</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>16</v>
@@ -3468,19 +3468,19 @@
         <v>8391</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>5110</v>
+        <v>4980</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>12698</v>
+        <v>13078</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1772076500610974</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1079255213109347</v>
+        <v>0.1051774473368052</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2681545116949612</v>
+        <v>0.2761875852497174</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>21</v>
@@ -3489,19 +3489,19 @@
         <v>10660</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>6973</v>
+        <v>6392</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>16504</v>
+        <v>15463</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1699431538362318</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.111161629463622</v>
+        <v>0.1018943414641384</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.263092410744687</v>
+        <v>0.2465089943357607</v>
       </c>
     </row>
     <row r="47">
@@ -3518,19 +3518,19 @@
         <v>6500</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3432</v>
+        <v>3573</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>9678</v>
+        <v>9740</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.4226921132398053</v>
+        <v>0.4226921132398054</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2231964019109675</v>
+        <v>0.2323744169386474</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.6294051647483013</v>
+        <v>0.6333981952944047</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>28</v>
@@ -3539,19 +3539,19 @@
         <v>14163</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>9629</v>
+        <v>9468</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>19048</v>
+        <v>19335</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2990904299390438</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2033457854336364</v>
+        <v>0.1999445857258669</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.4022673226927945</v>
+        <v>0.4083191475823811</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>37</v>
@@ -3560,19 +3560,19 @@
         <v>20662</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>15715</v>
+        <v>15256</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>27486</v>
+        <v>27657</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.3293893978277937</v>
+        <v>0.3293893978277938</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2505211043689401</v>
+        <v>0.2432011486084057</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.4381687048844333</v>
+        <v>0.4408912732866342</v>
       </c>
     </row>
     <row r="48">
@@ -3602,19 +3602,19 @@
         <v>2210</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>6759</v>
+        <v>6853</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.04667939504220842</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.009112756437644195</v>
+        <v>0.008647047532073225</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.1427415612818623</v>
+        <v>0.1447344468456234</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>3</v>
@@ -3623,19 +3623,19 @@
         <v>2210</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>6575</v>
+        <v>6531</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.03523669091649984</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.006424362771888652</v>
+        <v>0.006574232060284624</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.104817499561742</v>
+        <v>0.1041082311573849</v>
       </c>
     </row>
     <row r="49">
@@ -3652,19 +3652,19 @@
         <v>2544</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>667</v>
+        <v>738</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>5681</v>
+        <v>5549</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.16543132636155</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.04336340721255699</v>
+        <v>0.04801209675282248</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.3694391749249263</v>
+        <v>0.3608427237056753</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>18</v>
@@ -3673,19 +3673,19 @@
         <v>12424</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>7969</v>
+        <v>7634</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>18034</v>
+        <v>18232</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2623851983250975</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1683014274783376</v>
+        <v>0.1612153488362398</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.3808431377434</v>
+        <v>0.3850367997220994</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>22</v>
@@ -3694,19 +3694,19 @@
         <v>14968</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>9791</v>
+        <v>9746</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>21012</v>
+        <v>20823</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2386185134801557</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1560885388405704</v>
+        <v>0.1553632403986053</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.3349638966851518</v>
+        <v>0.3319445316070062</v>
       </c>
     </row>
     <row r="50">
@@ -3723,19 +3723,19 @@
         <v>4064</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>1726</v>
+        <v>1832</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>7238</v>
+        <v>7461</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.26430371390651</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.112267593399009</v>
+        <v>0.119164766064563</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.4707164265228482</v>
+        <v>0.4852244890218781</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>18</v>
@@ -3744,19 +3744,19 @@
         <v>10164</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>6581</v>
+        <v>6510</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>14930</v>
+        <v>15167</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2146373266325527</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1389764221352889</v>
+        <v>0.137482653443179</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.3153001973777188</v>
+        <v>0.3203109930076976</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>25</v>
@@ -3765,19 +3765,19 @@
         <v>14228</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>9529</v>
+        <v>9414</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>19718</v>
+        <v>19519</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2268122439393187</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1519023064265319</v>
+        <v>0.1500817354547207</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.3143308491716217</v>
+        <v>0.3111651353794506</v>
       </c>
     </row>
     <row r="51">
